--- a/Algoritmes/tempertuur.xlsx
+++ b/Algoritmes/tempertuur.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db9e4f8f00016419/Documenten/GitHub/zeuristieken/Algoritmes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bobbo\OneDrive\Documenten\GitHub\zeuristieken\Algoritmes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="47" documentId="47F062B26E0C2EBCBD46112161555FB2F99E8451" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{C4B0AC93-98DF-4F4B-9EE8-4AE3A9EDF2EC}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{DD39C64C-3021-4A9E-985A-CED272178A19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>i</t>
   </si>
@@ -36,6 +37,9 @@
   </si>
   <si>
     <t>Heuvels</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -713,304 +717,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>92.756896881832802</c:v>
+                  <c:v>95.111013046577199</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>90.461048027461771</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>86.038419191469643</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>79.806567768190533</c:v>
-                </c:pt>
                 <c:pt idx="3">
+                  <c:v>81.832012102267456</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.831255706864226</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>74.026095769670505</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>68.664309318720058</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>70.406969605363045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66.964782047056488</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>63.690882589387876</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>59.077686286567712</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
+                  <c:v>60.57704364907287</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57.615439888300472</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>54.798628549004292</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>50.829507375858505</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
+                  <c:v>52.119530748588851</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49.57141369010516</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>47.14787374216867</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>43.732904629000124</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
+                  <c:v>44.842820346097788</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42.650460709830242</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>40.565285250151923</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>37.627099809304745</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
+                  <c:v>38.582053746653251</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>36.695782172616802</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>34.901730169741114</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>32.37376186352229</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="21">
+                  <c:v>33.195389135223643</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>31.572470891264626</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>30.028896908517488</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>27.853872940185443</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="24">
+                  <c:v>28.560788056403279</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27.164454854530991</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>25.836388200724542</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>23.965031961336081</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="27">
+                  <c:v>24.573250552355447</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23.371867538818893</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>22.229219984074781</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>20.619134658264009</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="30">
+                  <c:v>21.142436319205711</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20.108785365924017</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>19.125669472892199</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>17.740377510930792</c:v>
-                </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="33">
+                  <c:v>18.19061798760773</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17.301281047446608</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>16.45542367426193</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>15.26354036900384</c:v>
-                </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="36">
+                  <c:v>15.650920157696815</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.885748713096399</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>14.157986400593817</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>13.132508846142718</c:v>
-                </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="39">
+                  <c:v>13.465804292601408</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12.807462877562678</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>12.18130768841417</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>11.299003011401101</c:v>
-                </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="42">
+                  <c:v>11.585765144771313</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11.019338598389238</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>10.480604571960503</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>9.721483575406058</c:v>
-                </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="45">
+                  <c:v>9.9682091817975209</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.4808647354095452</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>9.0173464954237108</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>8.3642107902377347</c:v>
-                </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="48">
+                  <c:v>8.5764896017175172</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.1571861440278859</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>7.758382377679947</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>7.1964347417628778</c:v>
-                </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="51">
+                  <c:v>7.3790760754385216</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.0183140088271898</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>6.6751895525853842</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>6.1916986899584989</c:v>
-                </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="54">
+                  <c:v>6.3488404062432418</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.0384464270883749</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>5.7432275690785985</c:v>
                 </c:pt>
-                <c:pt idx="38">
-                  <c:v>5.3272396739392276</c:v>
-                </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="57">
+                  <c:v>5.4624419225209646</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.1953838495906162</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>4.9413822110038952</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>4.5834728019981137</c:v>
-                </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="60">
+                  <c:v>4.6997986793891595</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.4700261351166874</c:v>
+                </c:pt>
+                <c:pt idx="62">
                   <c:v>4.2514871405562422</c:v>
                 </c:pt>
-                <c:pt idx="42">
-                  <c:v>3.9435475429101361</c:v>
-                </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="63">
+                  <c:v>4.0436324889279991</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.8459398240999443</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>3.6579123278632055</c:v>
                 </c:pt>
-                <c:pt idx="44">
-                  <c:v>3.3929659659839233</c:v>
-                </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="66">
+                  <c:v>3.4790774713863293</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.3089858277107793</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>3.1472099423033897</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>2.9192542808371451</c:v>
-                </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="69">
+                  <c:v>2.9933432588273523</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.8469990974321218</c:v>
+                </c:pt>
+                <c:pt idx="71">
                   <c:v>2.7078096829946001</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>2.511680235411585</c:v>
-                </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="72">
+                  <c:v>2.5754252208694748</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.4495130178260061</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>2.3297566459621</c:v>
                 </c:pt>
-                <c:pt idx="50">
-                  <c:v>2.161009969692711</c:v>
-                </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="75">
+                  <c:v>2.2158551474945116</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.1075222784267571</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>2.004485789193994</c:v>
                 </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.8592988164936652</c:v>
-                </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="78">
+                  <c:v>1.9064867404770856</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.8132788524664254</c:v>
+                </c:pt>
+                <c:pt idx="80">
                   <c:v>1.7246278859401671</c:v>
                 </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.5997113097568536</c:v>
-                </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="81">
+                  <c:v>1.6403110536014607</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.5601164601953332</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>1.4838425699981819</c:v>
                 </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.3763663225419511</c:v>
-                </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="84">
+                  <c:v>1.4112977003416369</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.3422995398979782</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>1.2766746905165121</c:v>
                 </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.1842038261988588</c:v>
-                </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="87">
+                  <c:v>1.2142582314595087</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.1548933049425907</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>1.0984307219379943</c:v>
                 </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.0188702520663968</c:v>
-                </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="90">
+                  <c:v>1.0447285872500578</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.99365194292072401</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>0.94507242906889755</c:v>
                 </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.87661985849006985</c:v>
-                </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="93">
+                  <c:v>0.89886796131132329</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.85492242395431517</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>0.81312537818530262</c:v>
                 </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.75422986856335428</c:v>
-                </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="96">
+                  <c:v>0.77337178453085342</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.73556173888368681</c:v>
+                </c:pt>
+                <c:pt idx="98">
                   <c:v>0.69960022143529355</c:v>
                 </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.64892745598180923</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.60192497118294763</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.55832692482616852</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.51788672992451734</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.48037566004078042</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.44558155562945045</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.41330762407967581</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.38337132667233809</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.355603346155975</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.32984662910224466</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.30595549762457058</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.28379482543592133</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.26323927358557497</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.24417258155225752</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.22648690968413657</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.21008222926656434</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.19486575676784271</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.18075142906315095</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.16765941666854606</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.15551567223192567</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.14425151172725639</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.13380322598333616</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.12411172034992884</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.11512218046325219</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.1067837622204163</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>9.9049304209333083E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>9.1875060967623934E-2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>8.5220455561859976E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>7.9047850087742608E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>7.3322332793193196E-2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>6.8011520620336482E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>6.3085376049571956E-2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>5.8516037209817906E-2</c:v>
-                </c:pt>
                 <c:pt idx="99">
-                  <c:v>5.427766029404571E-2</c:v>
+                  <c:v>0.6653968578832048</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1743,6 +1747,1810 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>^10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$3:$W$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>95.111013046577199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.461048027461771</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.038419191469643</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81.832012102267456</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.831255706864226</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.026095769670505</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.406969605363045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66.964782047056488</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63.690882589387876</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.57704364907287</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57.615439888300472</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54.798628549004292</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52.119530748588851</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49.57141369010516</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>47.14787374216867</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44.842820346097788</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42.650460709830242</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40.565285250151923</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38.582053746653251</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>36.695782172616802</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>34.901730169741114</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33.195389135223643</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>31.572470891264626</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30.028896908517488</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28.560788056403279</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27.164454854530991</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25.836388200724542</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24.573250552355447</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23.371867538818893</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22.229219984074781</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>21.142436319205711</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20.108785365924017</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19.125669472892199</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18.19061798760773</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17.301281047446608</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16.45542367426193</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15.650920157696815</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.885748713096399</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14.157986400593817</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13.465804292601408</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12.807462877562678</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12.18130768841417</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11.585765144771313</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11.019338598389238</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10.480604571960503</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.9682091817975209</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.4808647354095452</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.0173464954237108</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.5764896017175172</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.1571861440278859</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.758382377679947</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.3790760754385216</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.0183140088271898</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.6751895525853842</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.3488404062432418</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.0384464270883749</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.7432275690785985</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.4624419225209646</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.1953838495906162</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.9413822110038952</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.6997986793891595</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.4700261351166874</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.2514871405562422</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.0436324889279991</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.8459398240999443</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.6579123278632055</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.4790774713863293</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.3089858277107793</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.1472099423033897</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.9933432588273523</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.8469990974321218</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.7078096829946001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.5754252208694748</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.4495130178260061</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.3297566459621</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.2158551474945116</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.1075222784267571</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.004485789193994</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.9064867404770856</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.8132788524664254</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.7246278859401671</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.6403110536014607</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.5601164601953332</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.4838425699981819</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.4112977003416369</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.3422995398979782</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.2766746905165121</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.2142582314595087</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.1548933049425907</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.0984307219379943</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.0447285872500578</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.99365194292072401</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.94507242906889755</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.89886796131132329</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.85492242395431517</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.81312537818530262</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.77337178453085342</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.73556173888368681</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.69960022143529355</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.6653968578832048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6188-44BE-A43B-9BF61E5C5568}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>^20</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$X$3:$X$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>90.461048027461771</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.832012102267456</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.026095769670505</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.964782047056488</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.57704364907287</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.798628549004292</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49.57141369010516</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.842820346097788</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40.565285250151923</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.695782172616802</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.195389135223643</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.028896908517488</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27.164454854530991</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.573250552355447</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.229219984074781</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.108785365924017</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.19061798760773</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.45542367426193</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.885748713096399</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.465804292601408</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.18130768841417</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.019338598389238</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.9682091817975209</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.0173464954237108</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.1571861440278859</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.3790760754385216</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.6751895525853842</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.0384464270883749</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.4624419225209646</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.9413822110038952</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.4700261351166874</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.0436324889279991</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.6579123278632055</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3089858277107793</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.9933432588273523</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.7078096829946001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.4495130178260061</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.2158551474945116</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.004485789193994</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.8132788524664254</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.6403110536014607</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.4838425699981819</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.3422995398979782</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.2142582314595087</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.0984307219379943</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.99365194292072401</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.89886796131132329</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.81312537818530262</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.73556173888368681</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.6653968578832048</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.60192497118294763</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.54450763727109175</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.49256731526499969</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.44558155562945045</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.40307774503946853</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.3646283525281635</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.32984662910224466</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.29838271756914531</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.26992013344587018</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.24417258155225752</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.22088107626788092</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.19981133648626226</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.18075142906315095</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.16350963705514049</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.14791253130597906</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.13380322598333616</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.12103980051907895</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.10949387207990792</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9.9049304209333083E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.9601038651671502E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.1054038607793172E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.3322332793193196E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.6328150682905831E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.0001140244990689E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.427766029404571E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.9100140346779252E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.4416501540651111E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.0179632790806705E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.6346916916149434E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.2879801968019567E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.9743413449624504E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.6906203525671343E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.4339633693724175E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.2017887725388093E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.9917611989895934E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.8017680548103248E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.6298982654054314E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.4744230526671738E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.3337785458012204E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.2065500508972231E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.0914578210175016E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.8734418367013004E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8.9316189618618667E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8.0796361187197453E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7.3089235097992186E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6.6117288064899155E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.9810391710843677E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.4105107170959316E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.8944046983231178E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.4275297848084209E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6188-44BE-A43B-9BF61E5C5568}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>^30</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Y$3:$Y$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>86.038419191469643</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.026095769670505</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.690882589387876</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.798628549004292</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.14787374216867</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.565285250151923</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.901730169741114</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.028896908517488</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.836388200724542</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.229219984074781</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.125669472892199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.45542367426193</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.157986400593817</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.18130768841417</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.480604571960503</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.0173464954237108</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.758382377679947</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.6751895525853842</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.7432275690785985</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.9413822110038952</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.2514871405562422</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.6579123278632055</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.1472099423033897</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7078096829946001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.3297566459621</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.004485789193994</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.7246278859401671</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.4838425699981819</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.2766746905165121</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0984307219379943</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.94507242906889755</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.81312537818530262</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.69960022143529355</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.60192497118294763</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.51788672992451734</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.44558155562945045</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.38337132667233809</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.32984662910224466</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.28379482543592133</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.24417258155225752</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.21008222926656434</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.18075142906315095</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.15551567223192567</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.13380322598333616</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.11512218046325219</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.9049304209333083E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.5220455561859976E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.3322332793193196E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.3085376049571956E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.427766029404571E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.6699640891112913E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.0179632790806705E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.456992089014746E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.9743413449624504E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.5590762745639883E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.2017887725388093E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.8943842538276547E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.6298982654054314E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4023387019840178E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.2065500508972231E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.0380965905458431E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8.9316189618618667E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.6846237629915005E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.6117288064899155E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.6886269463309463E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.8944046983231178E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.211068431270228E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.6231367093359241E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.1172895498584614E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.6820666503191001E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.3076077475961553E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.9854292271716104E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.7082319212238667E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.4697357411450854E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.2645373979732618E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.0879879873011372E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9.3608766526698619E-4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.0539502944205067E-4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.9294915157861185E-4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.9620249581893831E-4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.1296320258270242E-4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.4134543053609316E-4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.7972663160704026E-4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.2671079108371293E-4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.8109679997637154E-4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.4185124309747746E-4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.0808498635598789E-4</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.7903303283547728E-4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.5403719128218943E-4</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.3253116434613606E-4</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.1402771873946407E-4</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.8107646643530105E-5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8.4410268278046222E-5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7.2625260461709523E-5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.2485626034942292E-5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.3761644862357729E-5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.6255669370904547E-5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.9797646713159077E-5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.4241266107407946E-5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.9460644069958265E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6188-44BE-A43B-9BF61E5C5568}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="403871280"/>
+        <c:axId val="403868656"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="403871280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="403868656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="403868656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="403871280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AU$3:$AU$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>95.111013046577199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.461048027461771</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86.038419191469643</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81.832012102267456</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.831255706864226</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.026095769670505</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.406969605363045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66.964782047056488</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63.690882589387876</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.57704364907287</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57.615439888300472</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54.798628549004292</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52.119530748588851</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49.57141369010516</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>47.14787374216867</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44.842820346097788</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42.650460709830242</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40.565285250151923</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38.582053746653251</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>36.695782172616802</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>34.901730169741114</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33.195389135223643</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>31.572470891264626</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30.028896908517488</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28.560788056403279</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>27.164454854530991</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25.836388200724542</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24.573250552355447</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23.371867538818893</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22.229219984074781</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>21.142436319205711</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20.108785365924017</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19.125669472892199</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>18.19061798760773</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17.301281047446608</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16.45542367426193</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15.650920157696815</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.885748713096399</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14.157986400593817</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13.465804292601408</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12.807462877562678</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12.18130768841417</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11.585765144771313</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11.019338598389238</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10.480604571960503</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.9682091817975209</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.4808647354095452</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.0173464954237108</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.5764896017175172</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.1571861440278859</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.758382377679947</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.3790760754385216</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.0183140088271898</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.6751895525853842</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.3488404062432418</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.0384464270883749</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.7432275690785985</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.4624419225209646</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.1953838495906162</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.9413822110038952</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.6997986793891595</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.4700261351166874</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.2514871405562422</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.0436324889279991</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.8459398240999443</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.6579123278632055</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.4790774713863293</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.3089858277107793</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.1472099423033897</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.9933432588273523</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.8469990974321218</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.7078096829946001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.5754252208694748</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.4495130178260061</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.3297566459621</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.2158551474945116</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.1075222784267571</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.004485789193994</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.9064867404770856</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.8132788524664254</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.7246278859401671</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.6403110536014607</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.5601164601953332</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.4838425699981819</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.4112977003416369</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.3422995398979782</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.2766746905165121</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.2142582314595087</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.1548933049425907</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.0984307219379943</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.0447285872500578</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.99365194292072401</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.94507242906889755</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.89886796131132329</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.85492242395431517</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.81312537818530262</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.77337178453085342</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.73556173888368681</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.69960022143529355</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.6653968578832048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5766-41F1-A491-C4281049F1A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="540285376"/>
+        <c:axId val="540282752"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="540285376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540282752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="540282752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540285376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1863,6 +3671,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2896,6 +4784,1038 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3451,16 +6371,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600375</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>70385</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:colOff>293570</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>70385</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3516,6 +6436,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>350920</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>10026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>250657</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DAD3C56-3D0B-4968-B926-F8ED61A707DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>160422</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>122320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>451185</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>158415</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C69E75D1-7670-4F47-8404-42946A4EB017}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3821,10 +6813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3DD02C-8FF6-406B-96CC-D67A9E18F810}">
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:BA103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C101"/>
+    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3832,7 +6824,7 @@
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3849,10 +6841,25 @@
         <v>100</v>
       </c>
       <c r="I1">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="AS1">
+        <v>100</v>
+      </c>
+      <c r="AU1">
+        <v>0.995</v>
+      </c>
+      <c r="AW1">
+        <v>10</v>
+      </c>
+      <c r="AY1">
+        <v>20</v>
+      </c>
+      <c r="BA1">
+        <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3862,7 +6869,7 @@
       </c>
       <c r="C2">
         <f>$F$1*(0.995^(A2*$I$1))</f>
-        <v>92.756896881832802</v>
+        <v>95.111013046577199</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3875,8 +6882,17 @@
         <f>E2+F2</f>
         <v>99</v>
       </c>
+      <c r="W2">
+        <v>10</v>
+      </c>
+      <c r="X2">
+        <v>20</v>
+      </c>
+      <c r="Y2">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3886,7 +6902,7 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" si="1">$F$1*(0.995^(A3*$I$1))</f>
-        <v>86.038419191469643</v>
+        <v>90.461048027461771</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -3899,8 +6915,31 @@
         <f t="shared" ref="G3:G66" si="3">E3+F3</f>
         <v>98</v>
       </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>95.111013046577199</v>
+      </c>
+      <c r="X3">
+        <v>90.461048027461771</v>
+      </c>
+      <c r="Y3">
+        <v>86.038419191469643</v>
+      </c>
+      <c r="AT3">
+        <v>1</v>
+      </c>
+      <c r="AU3">
+        <f>$AS$1*($AU$1^(AT3*$AW$1))</f>
+        <v>95.111013046577199</v>
+      </c>
+      <c r="AV3">
+        <f>AU3-W3</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3910,7 +6949,7 @@
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>79.806567768190533</v>
+        <v>86.038419191469643</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -3923,8 +6962,27 @@
         <f t="shared" si="3"/>
         <v>97</v>
       </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <v>90.461048027461771</v>
+      </c>
+      <c r="X4">
+        <v>81.832012102267456</v>
+      </c>
+      <c r="Y4">
+        <v>74.026095769670505</v>
+      </c>
+      <c r="AT4">
+        <v>2</v>
+      </c>
+      <c r="AU4">
+        <f t="shared" ref="AU4:AU67" si="4">$AS$1*($AU$1^(AT4*$AW$1))</f>
+        <v>90.461048027461771</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3934,7 +6992,7 @@
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>74.026095769670505</v>
+        <v>81.832012102267456</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -3947,8 +7005,27 @@
         <f t="shared" si="3"/>
         <v>96</v>
       </c>
+      <c r="V5">
+        <v>3</v>
+      </c>
+      <c r="W5">
+        <v>86.038419191469643</v>
+      </c>
+      <c r="X5">
+        <v>74.026095769670505</v>
+      </c>
+      <c r="Y5">
+        <v>63.690882589387876</v>
+      </c>
+      <c r="AT5">
+        <v>3</v>
+      </c>
+      <c r="AU5">
+        <f t="shared" si="4"/>
+        <v>86.038419191469643</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3958,7 +7035,7 @@
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>68.664309318720058</v>
+        <v>77.831255706864226</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -3971,8 +7048,27 @@
         <f t="shared" si="3"/>
         <v>95</v>
       </c>
+      <c r="V6">
+        <v>4</v>
+      </c>
+      <c r="W6">
+        <v>81.832012102267456</v>
+      </c>
+      <c r="X6">
+        <v>66.964782047056488</v>
+      </c>
+      <c r="Y6">
+        <v>54.798628549004292</v>
+      </c>
+      <c r="AT6">
+        <v>4</v>
+      </c>
+      <c r="AU6">
+        <f t="shared" si="4"/>
+        <v>81.832012102267456</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3982,7 +7078,7 @@
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>63.690882589387876</v>
+        <v>74.026095769670505</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -3995,8 +7091,27 @@
         <f t="shared" si="3"/>
         <v>94</v>
       </c>
+      <c r="V7">
+        <v>5</v>
+      </c>
+      <c r="W7">
+        <v>77.831255706864226</v>
+      </c>
+      <c r="X7">
+        <v>60.57704364907287</v>
+      </c>
+      <c r="Y7">
+        <v>47.14787374216867</v>
+      </c>
+      <c r="AT7">
+        <v>5</v>
+      </c>
+      <c r="AU7">
+        <f t="shared" si="4"/>
+        <v>77.831255706864226</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4006,7 +7121,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>59.077686286567712</v>
+        <v>70.406969605363045</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -4019,8 +7134,27 @@
         <f t="shared" si="3"/>
         <v>93</v>
       </c>
+      <c r="V8">
+        <v>6</v>
+      </c>
+      <c r="W8">
+        <v>74.026095769670505</v>
+      </c>
+      <c r="X8">
+        <v>54.798628549004292</v>
+      </c>
+      <c r="Y8">
+        <v>40.565285250151923</v>
+      </c>
+      <c r="AT8">
+        <v>6</v>
+      </c>
+      <c r="AU8">
+        <f t="shared" si="4"/>
+        <v>74.026095769670505</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4030,7 +7164,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>54.798628549004292</v>
+        <v>66.964782047056488</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -4043,8 +7177,27 @@
         <f t="shared" si="3"/>
         <v>92</v>
       </c>
+      <c r="V9">
+        <v>7</v>
+      </c>
+      <c r="W9">
+        <v>70.406969605363045</v>
+      </c>
+      <c r="X9">
+        <v>49.57141369010516</v>
+      </c>
+      <c r="Y9">
+        <v>34.901730169741114</v>
+      </c>
+      <c r="AT9">
+        <v>7</v>
+      </c>
+      <c r="AU9">
+        <f t="shared" si="4"/>
+        <v>70.406969605363045</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4054,7 +7207,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>50.829507375858505</v>
+        <v>63.690882589387876</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -4067,8 +7220,27 @@
         <f t="shared" si="3"/>
         <v>91</v>
       </c>
+      <c r="V10">
+        <v>8</v>
+      </c>
+      <c r="W10">
+        <v>66.964782047056488</v>
+      </c>
+      <c r="X10">
+        <v>44.842820346097788</v>
+      </c>
+      <c r="Y10">
+        <v>30.028896908517488</v>
+      </c>
+      <c r="AT10">
+        <v>8</v>
+      </c>
+      <c r="AU10">
+        <f t="shared" si="4"/>
+        <v>66.964782047056488</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4078,7 +7250,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>47.14787374216867</v>
+        <v>60.57704364907287</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -4094,8 +7266,27 @@
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
+      <c r="V11">
+        <v>9</v>
+      </c>
+      <c r="W11">
+        <v>63.690882589387876</v>
+      </c>
+      <c r="X11">
+        <v>40.565285250151923</v>
+      </c>
+      <c r="Y11">
+        <v>25.836388200724542</v>
+      </c>
+      <c r="AT11">
+        <v>9</v>
+      </c>
+      <c r="AU11">
+        <f t="shared" si="4"/>
+        <v>63.690882589387876</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4105,7 +7296,7 @@
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>43.732904629000124</v>
+        <v>57.615439888300472</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -4118,8 +7309,27 @@
         <f t="shared" si="3"/>
         <v>89</v>
       </c>
+      <c r="V12">
+        <v>10</v>
+      </c>
+      <c r="W12">
+        <v>60.57704364907287</v>
+      </c>
+      <c r="X12">
+        <v>36.695782172616802</v>
+      </c>
+      <c r="Y12">
+        <v>22.229219984074781</v>
+      </c>
+      <c r="AT12">
+        <v>10</v>
+      </c>
+      <c r="AU12">
+        <f t="shared" si="4"/>
+        <v>60.57704364907287</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4129,7 +7339,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>40.565285250151923</v>
+        <v>54.798628549004292</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -4142,8 +7352,27 @@
         <f t="shared" si="3"/>
         <v>88</v>
       </c>
+      <c r="V13">
+        <v>11</v>
+      </c>
+      <c r="W13">
+        <v>57.615439888300472</v>
+      </c>
+      <c r="X13">
+        <v>33.195389135223643</v>
+      </c>
+      <c r="Y13">
+        <v>19.125669472892199</v>
+      </c>
+      <c r="AT13">
+        <v>11</v>
+      </c>
+      <c r="AU13">
+        <f t="shared" si="4"/>
+        <v>57.615439888300472</v>
+      </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4153,7 +7382,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>37.627099809304745</v>
+        <v>52.119530748588851</v>
       </c>
       <c r="D14">
         <v>13</v>
@@ -4166,8 +7395,27 @@
         <f t="shared" si="3"/>
         <v>87</v>
       </c>
+      <c r="V14">
+        <v>12</v>
+      </c>
+      <c r="W14">
+        <v>54.798628549004292</v>
+      </c>
+      <c r="X14">
+        <v>30.028896908517488</v>
+      </c>
+      <c r="Y14">
+        <v>16.45542367426193</v>
+      </c>
+      <c r="AT14">
+        <v>12</v>
+      </c>
+      <c r="AU14">
+        <f t="shared" si="4"/>
+        <v>54.798628549004292</v>
+      </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4177,7 +7425,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>34.901730169741114</v>
+        <v>49.57141369010516</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -4190,8 +7438,27 @@
         <f t="shared" si="3"/>
         <v>86</v>
       </c>
+      <c r="V15">
+        <v>13</v>
+      </c>
+      <c r="W15">
+        <v>52.119530748588851</v>
+      </c>
+      <c r="X15">
+        <v>27.164454854530991</v>
+      </c>
+      <c r="Y15">
+        <v>14.157986400593817</v>
+      </c>
+      <c r="AT15">
+        <v>13</v>
+      </c>
+      <c r="AU15">
+        <f t="shared" si="4"/>
+        <v>52.119530748588851</v>
+      </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4201,7 +7468,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>32.37376186352229</v>
+        <v>47.14787374216867</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -4214,8 +7481,27 @@
         <f t="shared" si="3"/>
         <v>85</v>
       </c>
+      <c r="V16">
+        <v>14</v>
+      </c>
+      <c r="W16">
+        <v>49.57141369010516</v>
+      </c>
+      <c r="X16">
+        <v>24.573250552355447</v>
+      </c>
+      <c r="Y16">
+        <v>12.18130768841417</v>
+      </c>
+      <c r="AT16">
+        <v>14</v>
+      </c>
+      <c r="AU16">
+        <f t="shared" si="4"/>
+        <v>49.57141369010516</v>
+      </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4225,7 +7511,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>30.028896908517488</v>
+        <v>44.842820346097788</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -4238,8 +7524,27 @@
         <f t="shared" si="3"/>
         <v>84</v>
       </c>
+      <c r="V17">
+        <v>15</v>
+      </c>
+      <c r="W17">
+        <v>47.14787374216867</v>
+      </c>
+      <c r="X17">
+        <v>22.229219984074781</v>
+      </c>
+      <c r="Y17">
+        <v>10.480604571960503</v>
+      </c>
+      <c r="AT17">
+        <v>15</v>
+      </c>
+      <c r="AU17">
+        <f t="shared" si="4"/>
+        <v>47.14787374216867</v>
+      </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4249,7 +7554,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>27.853872940185443</v>
+        <v>42.650460709830242</v>
       </c>
       <c r="D18">
         <v>17</v>
@@ -4262,8 +7567,27 @@
         <f t="shared" si="3"/>
         <v>83</v>
       </c>
+      <c r="V18">
+        <v>16</v>
+      </c>
+      <c r="W18">
+        <v>44.842820346097788</v>
+      </c>
+      <c r="X18">
+        <v>20.108785365924017</v>
+      </c>
+      <c r="Y18">
+        <v>9.0173464954237108</v>
+      </c>
+      <c r="AT18">
+        <v>16</v>
+      </c>
+      <c r="AU18">
+        <f t="shared" si="4"/>
+        <v>44.842820346097788</v>
+      </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4273,7 +7597,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>25.836388200724542</v>
+        <v>40.565285250151923</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -4286,8 +7610,27 @@
         <f t="shared" si="3"/>
         <v>82</v>
       </c>
+      <c r="V19">
+        <v>17</v>
+      </c>
+      <c r="W19">
+        <v>42.650460709830242</v>
+      </c>
+      <c r="X19">
+        <v>18.19061798760773</v>
+      </c>
+      <c r="Y19">
+        <v>7.758382377679947</v>
+      </c>
+      <c r="AT19">
+        <v>17</v>
+      </c>
+      <c r="AU19">
+        <f t="shared" si="4"/>
+        <v>42.650460709830242</v>
+      </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4297,7 +7640,7 @@
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>23.965031961336081</v>
+        <v>38.582053746653251</v>
       </c>
       <c r="D20">
         <v>19</v>
@@ -4310,8 +7653,27 @@
         <f t="shared" si="3"/>
         <v>81</v>
       </c>
+      <c r="V20">
+        <v>18</v>
+      </c>
+      <c r="W20">
+        <v>40.565285250151923</v>
+      </c>
+      <c r="X20">
+        <v>16.45542367426193</v>
+      </c>
+      <c r="Y20">
+        <v>6.6751895525853842</v>
+      </c>
+      <c r="AT20">
+        <v>18</v>
+      </c>
+      <c r="AU20">
+        <f t="shared" si="4"/>
+        <v>40.565285250151923</v>
+      </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4321,7 +7683,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>22.229219984074781</v>
+        <v>36.695782172616802</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -4337,8 +7699,27 @@
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
+      <c r="V21">
+        <v>19</v>
+      </c>
+      <c r="W21">
+        <v>38.582053746653251</v>
+      </c>
+      <c r="X21">
+        <v>14.885748713096399</v>
+      </c>
+      <c r="Y21">
+        <v>5.7432275690785985</v>
+      </c>
+      <c r="AT21">
+        <v>19</v>
+      </c>
+      <c r="AU21">
+        <f t="shared" si="4"/>
+        <v>38.582053746653251</v>
+      </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4348,7 +7729,7 @@
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>20.619134658264009</v>
+        <v>34.901730169741114</v>
       </c>
       <c r="D22">
         <v>21</v>
@@ -4361,8 +7742,27 @@
         <f t="shared" si="3"/>
         <v>79</v>
       </c>
+      <c r="V22">
+        <v>20</v>
+      </c>
+      <c r="W22">
+        <v>36.695782172616802</v>
+      </c>
+      <c r="X22">
+        <v>13.465804292601408</v>
+      </c>
+      <c r="Y22">
+        <v>4.9413822110038952</v>
+      </c>
+      <c r="AT22">
+        <v>20</v>
+      </c>
+      <c r="AU22">
+        <f t="shared" si="4"/>
+        <v>36.695782172616802</v>
+      </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4372,7 +7772,7 @@
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>19.125669472892199</v>
+        <v>33.195389135223643</v>
       </c>
       <c r="D23">
         <v>22</v>
@@ -4385,8 +7785,27 @@
         <f t="shared" si="3"/>
         <v>78</v>
       </c>
+      <c r="V23">
+        <v>21</v>
+      </c>
+      <c r="W23">
+        <v>34.901730169741114</v>
+      </c>
+      <c r="X23">
+        <v>12.18130768841417</v>
+      </c>
+      <c r="Y23">
+        <v>4.2514871405562422</v>
+      </c>
+      <c r="AT23">
+        <v>21</v>
+      </c>
+      <c r="AU23">
+        <f t="shared" si="4"/>
+        <v>34.901730169741114</v>
+      </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4396,7 +7815,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>17.740377510930792</v>
+        <v>31.572470891264626</v>
       </c>
       <c r="D24">
         <v>23</v>
@@ -4409,8 +7828,27 @@
         <f t="shared" si="3"/>
         <v>77</v>
       </c>
+      <c r="V24">
+        <v>22</v>
+      </c>
+      <c r="W24">
+        <v>33.195389135223643</v>
+      </c>
+      <c r="X24">
+        <v>11.019338598389238</v>
+      </c>
+      <c r="Y24">
+        <v>3.6579123278632055</v>
+      </c>
+      <c r="AT24">
+        <v>22</v>
+      </c>
+      <c r="AU24">
+        <f t="shared" si="4"/>
+        <v>33.195389135223643</v>
+      </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4420,7 +7858,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>16.45542367426193</v>
+        <v>30.028896908517488</v>
       </c>
       <c r="D25">
         <v>24</v>
@@ -4436,8 +7874,27 @@
       <c r="O25">
         <v>573</v>
       </c>
+      <c r="V25">
+        <v>23</v>
+      </c>
+      <c r="W25">
+        <v>31.572470891264626</v>
+      </c>
+      <c r="X25">
+        <v>9.9682091817975209</v>
+      </c>
+      <c r="Y25">
+        <v>3.1472099423033897</v>
+      </c>
+      <c r="AT25">
+        <v>23</v>
+      </c>
+      <c r="AU25">
+        <f t="shared" si="4"/>
+        <v>31.572470891264626</v>
+      </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4447,7 +7904,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>15.26354036900384</v>
+        <v>28.560788056403279</v>
       </c>
       <c r="D26">
         <v>25</v>
@@ -4460,8 +7917,27 @@
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
+      <c r="V26">
+        <v>24</v>
+      </c>
+      <c r="W26">
+        <v>30.028896908517488</v>
+      </c>
+      <c r="X26">
+        <v>9.0173464954237108</v>
+      </c>
+      <c r="Y26">
+        <v>2.7078096829946001</v>
+      </c>
+      <c r="AT26">
+        <v>24</v>
+      </c>
+      <c r="AU26">
+        <f t="shared" si="4"/>
+        <v>30.028896908517488</v>
+      </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4471,7 +7947,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>14.157986400593817</v>
+        <v>27.164454854530991</v>
       </c>
       <c r="D27">
         <v>26</v>
@@ -4484,8 +7960,27 @@
         <f t="shared" si="3"/>
         <v>74</v>
       </c>
+      <c r="V27">
+        <v>25</v>
+      </c>
+      <c r="W27">
+        <v>28.560788056403279</v>
+      </c>
+      <c r="X27">
+        <v>8.1571861440278859</v>
+      </c>
+      <c r="Y27">
+        <v>2.3297566459621</v>
+      </c>
+      <c r="AT27">
+        <v>25</v>
+      </c>
+      <c r="AU27">
+        <f t="shared" si="4"/>
+        <v>28.560788056403279</v>
+      </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4495,7 +7990,7 @@
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>13.132508846142718</v>
+        <v>25.836388200724542</v>
       </c>
       <c r="D28">
         <v>27</v>
@@ -4508,8 +8003,27 @@
         <f t="shared" si="3"/>
         <v>73</v>
       </c>
+      <c r="V28">
+        <v>26</v>
+      </c>
+      <c r="W28">
+        <v>27.164454854530991</v>
+      </c>
+      <c r="X28">
+        <v>7.3790760754385216</v>
+      </c>
+      <c r="Y28">
+        <v>2.004485789193994</v>
+      </c>
+      <c r="AT28">
+        <v>26</v>
+      </c>
+      <c r="AU28">
+        <f t="shared" si="4"/>
+        <v>27.164454854530991</v>
+      </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4519,7 +8033,7 @@
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>12.18130768841417</v>
+        <v>24.573250552355447</v>
       </c>
       <c r="D29">
         <v>28</v>
@@ -4532,8 +8046,27 @@
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
+      <c r="V29">
+        <v>27</v>
+      </c>
+      <c r="W29">
+        <v>25.836388200724542</v>
+      </c>
+      <c r="X29">
+        <v>6.6751895525853842</v>
+      </c>
+      <c r="Y29">
+        <v>1.7246278859401671</v>
+      </c>
+      <c r="AT29">
+        <v>27</v>
+      </c>
+      <c r="AU29">
+        <f t="shared" si="4"/>
+        <v>25.836388200724542</v>
+      </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4543,7 +8076,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>11.299003011401101</v>
+        <v>23.371867538818893</v>
       </c>
       <c r="D30">
         <v>29</v>
@@ -4556,8 +8089,27 @@
         <f t="shared" si="3"/>
         <v>71</v>
       </c>
+      <c r="V30">
+        <v>28</v>
+      </c>
+      <c r="W30">
+        <v>24.573250552355447</v>
+      </c>
+      <c r="X30">
+        <v>6.0384464270883749</v>
+      </c>
+      <c r="Y30">
+        <v>1.4838425699981819</v>
+      </c>
+      <c r="AT30">
+        <v>28</v>
+      </c>
+      <c r="AU30">
+        <f t="shared" si="4"/>
+        <v>24.573250552355447</v>
+      </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4567,7 +8119,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>10.480604571960503</v>
+        <v>22.229219984074781</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -4583,8 +8135,27 @@
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
+      <c r="V31">
+        <v>29</v>
+      </c>
+      <c r="W31">
+        <v>23.371867538818893</v>
+      </c>
+      <c r="X31">
+        <v>5.4624419225209646</v>
+      </c>
+      <c r="Y31">
+        <v>1.2766746905165121</v>
+      </c>
+      <c r="AT31">
+        <v>29</v>
+      </c>
+      <c r="AU31">
+        <f t="shared" si="4"/>
+        <v>23.371867538818893</v>
+      </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4594,7 +8165,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>9.721483575406058</v>
+        <v>21.142436319205711</v>
       </c>
       <c r="D32">
         <v>31</v>
@@ -4607,8 +8178,27 @@
         <f t="shared" si="3"/>
         <v>69</v>
       </c>
+      <c r="V32">
+        <v>30</v>
+      </c>
+      <c r="W32">
+        <v>22.229219984074781</v>
+      </c>
+      <c r="X32">
+        <v>4.9413822110038952</v>
+      </c>
+      <c r="Y32">
+        <v>1.0984307219379943</v>
+      </c>
+      <c r="AT32">
+        <v>30</v>
+      </c>
+      <c r="AU32">
+        <f t="shared" si="4"/>
+        <v>22.229219984074781</v>
+      </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4618,7 +8208,7 @@
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>9.0173464954237108</v>
+        <v>20.108785365924017</v>
       </c>
       <c r="D33">
         <v>32</v>
@@ -4631,8 +8221,27 @@
         <f t="shared" si="3"/>
         <v>68</v>
       </c>
+      <c r="V33">
+        <v>31</v>
+      </c>
+      <c r="W33">
+        <v>21.142436319205711</v>
+      </c>
+      <c r="X33">
+        <v>4.4700261351166874</v>
+      </c>
+      <c r="Y33">
+        <v>0.94507242906889755</v>
+      </c>
+      <c r="AT33">
+        <v>31</v>
+      </c>
+      <c r="AU33">
+        <f t="shared" si="4"/>
+        <v>21.142436319205711</v>
+      </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4642,7 +8251,7 @@
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>8.3642107902377347</v>
+        <v>19.125669472892199</v>
       </c>
       <c r="D34">
         <v>33</v>
@@ -4655,8 +8264,27 @@
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
+      <c r="V34">
+        <v>32</v>
+      </c>
+      <c r="W34">
+        <v>20.108785365924017</v>
+      </c>
+      <c r="X34">
+        <v>4.0436324889279991</v>
+      </c>
+      <c r="Y34">
+        <v>0.81312537818530262</v>
+      </c>
+      <c r="AT34">
+        <v>32</v>
+      </c>
+      <c r="AU34">
+        <f t="shared" si="4"/>
+        <v>20.108785365924017</v>
+      </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4666,7 +8294,7 @@
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>7.758382377679947</v>
+        <v>18.19061798760773</v>
       </c>
       <c r="D35">
         <v>34</v>
@@ -4679,8 +8307,27 @@
         <f t="shared" si="3"/>
         <v>66</v>
       </c>
+      <c r="V35">
+        <v>33</v>
+      </c>
+      <c r="W35">
+        <v>19.125669472892199</v>
+      </c>
+      <c r="X35">
+        <v>3.6579123278632055</v>
+      </c>
+      <c r="Y35">
+        <v>0.69960022143529355</v>
+      </c>
+      <c r="AT35">
+        <v>33</v>
+      </c>
+      <c r="AU35">
+        <f t="shared" si="4"/>
+        <v>19.125669472892199</v>
+      </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4690,7 +8337,7 @@
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>7.1964347417628778</v>
+        <v>17.301281047446608</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -4703,8 +8350,27 @@
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
+      <c r="V36">
+        <v>34</v>
+      </c>
+      <c r="W36">
+        <v>18.19061798760773</v>
+      </c>
+      <c r="X36">
+        <v>3.3089858277107793</v>
+      </c>
+      <c r="Y36">
+        <v>0.60192497118294763</v>
+      </c>
+      <c r="AT36">
+        <v>34</v>
+      </c>
+      <c r="AU36">
+        <f t="shared" si="4"/>
+        <v>18.19061798760773</v>
+      </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4714,7 +8380,7 @@
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
-        <v>6.6751895525853842</v>
+        <v>16.45542367426193</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -4727,8 +8393,27 @@
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
+      <c r="V37">
+        <v>35</v>
+      </c>
+      <c r="W37">
+        <v>17.301281047446608</v>
+      </c>
+      <c r="X37">
+        <v>2.9933432588273523</v>
+      </c>
+      <c r="Y37">
+        <v>0.51788672992451734</v>
+      </c>
+      <c r="AT37">
+        <v>35</v>
+      </c>
+      <c r="AU37">
+        <f t="shared" si="4"/>
+        <v>17.301281047446608</v>
+      </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4738,7 +8423,7 @@
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
-        <v>6.1916986899584989</v>
+        <v>15.650920157696815</v>
       </c>
       <c r="D38">
         <v>37</v>
@@ -4751,8 +8436,27 @@
         <f t="shared" si="3"/>
         <v>63</v>
       </c>
+      <c r="V38">
+        <v>36</v>
+      </c>
+      <c r="W38">
+        <v>16.45542367426193</v>
+      </c>
+      <c r="X38">
+        <v>2.7078096829946001</v>
+      </c>
+      <c r="Y38">
+        <v>0.44558155562945045</v>
+      </c>
+      <c r="AT38">
+        <v>36</v>
+      </c>
+      <c r="AU38">
+        <f t="shared" si="4"/>
+        <v>16.45542367426193</v>
+      </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4762,7 +8466,7 @@
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
-        <v>5.7432275690785985</v>
+        <v>14.885748713096399</v>
       </c>
       <c r="D39">
         <v>38</v>
@@ -4775,8 +8479,27 @@
         <f t="shared" si="3"/>
         <v>62</v>
       </c>
+      <c r="V39">
+        <v>37</v>
+      </c>
+      <c r="W39">
+        <v>15.650920157696815</v>
+      </c>
+      <c r="X39">
+        <v>2.4495130178260061</v>
+      </c>
+      <c r="Y39">
+        <v>0.38337132667233809</v>
+      </c>
+      <c r="AT39">
+        <v>37</v>
+      </c>
+      <c r="AU39">
+        <f t="shared" si="4"/>
+        <v>15.650920157696815</v>
+      </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4786,7 +8509,7 @@
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
-        <v>5.3272396739392276</v>
+        <v>14.157986400593817</v>
       </c>
       <c r="D40">
         <v>39</v>
@@ -4799,8 +8522,27 @@
         <f t="shared" si="3"/>
         <v>61</v>
       </c>
+      <c r="V40">
+        <v>38</v>
+      </c>
+      <c r="W40">
+        <v>14.885748713096399</v>
+      </c>
+      <c r="X40">
+        <v>2.2158551474945116</v>
+      </c>
+      <c r="Y40">
+        <v>0.32984662910224466</v>
+      </c>
+      <c r="AT40">
+        <v>38</v>
+      </c>
+      <c r="AU40">
+        <f t="shared" si="4"/>
+        <v>14.885748713096399</v>
+      </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4810,7 +8552,7 @@
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
-        <v>4.9413822110038952</v>
+        <v>13.465804292601408</v>
       </c>
       <c r="D41">
         <v>40</v>
@@ -4826,8 +8568,27 @@
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
+      <c r="V41">
+        <v>39</v>
+      </c>
+      <c r="W41">
+        <v>14.157986400593817</v>
+      </c>
+      <c r="X41">
+        <v>2.004485789193994</v>
+      </c>
+      <c r="Y41">
+        <v>0.28379482543592133</v>
+      </c>
+      <c r="AT41">
+        <v>39</v>
+      </c>
+      <c r="AU41">
+        <f t="shared" si="4"/>
+        <v>14.157986400593817</v>
+      </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4837,7 +8598,7 @@
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
-        <v>4.5834728019981137</v>
+        <v>12.807462877562678</v>
       </c>
       <c r="D42">
         <v>41</v>
@@ -4850,8 +8611,27 @@
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
+      <c r="V42">
+        <v>40</v>
+      </c>
+      <c r="W42">
+        <v>13.465804292601408</v>
+      </c>
+      <c r="X42">
+        <v>1.8132788524664254</v>
+      </c>
+      <c r="Y42">
+        <v>0.24417258155225752</v>
+      </c>
+      <c r="AT42">
+        <v>40</v>
+      </c>
+      <c r="AU42">
+        <f t="shared" si="4"/>
+        <v>13.465804292601408</v>
+      </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4861,7 +8641,7 @@
       </c>
       <c r="C43">
         <f t="shared" si="1"/>
-        <v>4.2514871405562422</v>
+        <v>12.18130768841417</v>
       </c>
       <c r="D43">
         <v>42</v>
@@ -4874,8 +8654,27 @@
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
+      <c r="V43">
+        <v>41</v>
+      </c>
+      <c r="W43">
+        <v>12.807462877562678</v>
+      </c>
+      <c r="X43">
+        <v>1.6403110536014607</v>
+      </c>
+      <c r="Y43">
+        <v>0.21008222926656434</v>
+      </c>
+      <c r="AT43">
+        <v>41</v>
+      </c>
+      <c r="AU43">
+        <f t="shared" si="4"/>
+        <v>12.807462877562678</v>
+      </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4885,7 +8684,7 @@
       </c>
       <c r="C44">
         <f t="shared" si="1"/>
-        <v>3.9435475429101361</v>
+        <v>11.585765144771313</v>
       </c>
       <c r="D44">
         <v>43</v>
@@ -4898,8 +8697,27 @@
         <f t="shared" si="3"/>
         <v>57</v>
       </c>
+      <c r="V44">
+        <v>42</v>
+      </c>
+      <c r="W44">
+        <v>12.18130768841417</v>
+      </c>
+      <c r="X44">
+        <v>1.4838425699981819</v>
+      </c>
+      <c r="Y44">
+        <v>0.18075142906315095</v>
+      </c>
+      <c r="AT44">
+        <v>42</v>
+      </c>
+      <c r="AU44">
+        <f t="shared" si="4"/>
+        <v>12.18130768841417</v>
+      </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4909,7 +8727,7 @@
       </c>
       <c r="C45">
         <f t="shared" si="1"/>
-        <v>3.6579123278632055</v>
+        <v>11.019338598389238</v>
       </c>
       <c r="D45">
         <v>44</v>
@@ -4922,8 +8740,27 @@
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
+      <c r="V45">
+        <v>43</v>
+      </c>
+      <c r="W45">
+        <v>11.585765144771313</v>
+      </c>
+      <c r="X45">
+        <v>1.3422995398979782</v>
+      </c>
+      <c r="Y45">
+        <v>0.15551567223192567</v>
+      </c>
+      <c r="AT45">
+        <v>43</v>
+      </c>
+      <c r="AU45">
+        <f t="shared" si="4"/>
+        <v>11.585765144771313</v>
+      </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4933,7 +8770,7 @@
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
-        <v>3.3929659659839233</v>
+        <v>10.480604571960503</v>
       </c>
       <c r="D46">
         <v>45</v>
@@ -4946,8 +8783,27 @@
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
+      <c r="V46">
+        <v>44</v>
+      </c>
+      <c r="W46">
+        <v>11.019338598389238</v>
+      </c>
+      <c r="X46">
+        <v>1.2142582314595087</v>
+      </c>
+      <c r="Y46">
+        <v>0.13380322598333616</v>
+      </c>
+      <c r="AT46">
+        <v>44</v>
+      </c>
+      <c r="AU46">
+        <f t="shared" si="4"/>
+        <v>11.019338598389238</v>
+      </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4957,7 +8813,7 @@
       </c>
       <c r="C47">
         <f t="shared" si="1"/>
-        <v>3.1472099423033897</v>
+        <v>9.9682091817975209</v>
       </c>
       <c r="D47">
         <v>46</v>
@@ -4970,8 +8826,27 @@
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
+      <c r="V47">
+        <v>45</v>
+      </c>
+      <c r="W47">
+        <v>10.480604571960503</v>
+      </c>
+      <c r="X47">
+        <v>1.0984307219379943</v>
+      </c>
+      <c r="Y47">
+        <v>0.11512218046325219</v>
+      </c>
+      <c r="AT47">
+        <v>45</v>
+      </c>
+      <c r="AU47">
+        <f t="shared" si="4"/>
+        <v>10.480604571960503</v>
+      </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4981,7 +8856,7 @@
       </c>
       <c r="C48">
         <f t="shared" si="1"/>
-        <v>2.9192542808371451</v>
+        <v>9.4808647354095452</v>
       </c>
       <c r="D48">
         <v>47</v>
@@ -4994,8 +8869,27 @@
         <f t="shared" si="3"/>
         <v>53</v>
       </c>
+      <c r="V48">
+        <v>46</v>
+      </c>
+      <c r="W48">
+        <v>9.9682091817975209</v>
+      </c>
+      <c r="X48">
+        <v>0.99365194292072401</v>
+      </c>
+      <c r="Y48">
+        <v>9.9049304209333083E-2</v>
+      </c>
+      <c r="AT48">
+        <v>46</v>
+      </c>
+      <c r="AU48">
+        <f t="shared" si="4"/>
+        <v>9.9682091817975209</v>
+      </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5005,7 +8899,7 @@
       </c>
       <c r="C49">
         <f t="shared" si="1"/>
-        <v>2.7078096829946001</v>
+        <v>9.0173464954237108</v>
       </c>
       <c r="D49">
         <v>48</v>
@@ -5018,8 +8912,27 @@
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
+      <c r="V49">
+        <v>47</v>
+      </c>
+      <c r="W49">
+        <v>9.4808647354095452</v>
+      </c>
+      <c r="X49">
+        <v>0.89886796131132329</v>
+      </c>
+      <c r="Y49">
+        <v>8.5220455561859976E-2</v>
+      </c>
+      <c r="AT49">
+        <v>47</v>
+      </c>
+      <c r="AU49">
+        <f t="shared" si="4"/>
+        <v>9.4808647354095452</v>
+      </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5029,7 +8942,7 @@
       </c>
       <c r="C50">
         <f t="shared" si="1"/>
-        <v>2.511680235411585</v>
+        <v>8.5764896017175172</v>
       </c>
       <c r="D50">
         <v>49</v>
@@ -5042,8 +8955,27 @@
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
+      <c r="V50">
+        <v>48</v>
+      </c>
+      <c r="W50">
+        <v>9.0173464954237108</v>
+      </c>
+      <c r="X50">
+        <v>0.81312537818530262</v>
+      </c>
+      <c r="Y50">
+        <v>7.3322332793193196E-2</v>
+      </c>
+      <c r="AT50">
+        <v>48</v>
+      </c>
+      <c r="AU50">
+        <f t="shared" si="4"/>
+        <v>9.0173464954237108</v>
+      </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5053,7 +8985,7 @@
       </c>
       <c r="C51">
         <f t="shared" si="1"/>
-        <v>2.3297566459621</v>
+        <v>8.1571861440278859</v>
       </c>
       <c r="D51">
         <v>50</v>
@@ -5069,8 +9001,27 @@
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
+      <c r="V51">
+        <v>49</v>
+      </c>
+      <c r="W51">
+        <v>8.5764896017175172</v>
+      </c>
+      <c r="X51">
+        <v>0.73556173888368681</v>
+      </c>
+      <c r="Y51">
+        <v>6.3085376049571956E-2</v>
+      </c>
+      <c r="AT51">
+        <v>49</v>
+      </c>
+      <c r="AU51">
+        <f t="shared" si="4"/>
+        <v>8.5764896017175172</v>
+      </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5080,7 +9031,7 @@
       </c>
       <c r="C52">
         <f t="shared" si="1"/>
-        <v>2.161009969692711</v>
+        <v>7.758382377679947</v>
       </c>
       <c r="D52">
         <v>51</v>
@@ -5093,8 +9044,27 @@
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
+      <c r="V52">
+        <v>50</v>
+      </c>
+      <c r="W52">
+        <v>8.1571861440278859</v>
+      </c>
+      <c r="X52">
+        <v>0.6653968578832048</v>
+      </c>
+      <c r="Y52">
+        <v>5.427766029404571E-2</v>
+      </c>
+      <c r="AT52">
+        <v>50</v>
+      </c>
+      <c r="AU52">
+        <f t="shared" si="4"/>
+        <v>8.1571861440278859</v>
+      </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5104,7 +9074,7 @@
       </c>
       <c r="C53">
         <f t="shared" si="1"/>
-        <v>2.004485789193994</v>
+        <v>7.3790760754385216</v>
       </c>
       <c r="D53">
         <v>52</v>
@@ -5117,8 +9087,27 @@
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
+      <c r="V53">
+        <v>51</v>
+      </c>
+      <c r="W53">
+        <v>7.758382377679947</v>
+      </c>
+      <c r="X53">
+        <v>0.60192497118294763</v>
+      </c>
+      <c r="Y53">
+        <v>4.6699640891112913E-2</v>
+      </c>
+      <c r="AT53">
+        <v>51</v>
+      </c>
+      <c r="AU53">
+        <f t="shared" si="4"/>
+        <v>7.758382377679947</v>
+      </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5128,7 +9117,7 @@
       </c>
       <c r="C54">
         <f t="shared" si="1"/>
-        <v>1.8592988164936652</v>
+        <v>7.0183140088271898</v>
       </c>
       <c r="D54">
         <v>53</v>
@@ -5141,8 +9130,27 @@
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
+      <c r="V54">
+        <v>52</v>
+      </c>
+      <c r="W54">
+        <v>7.3790760754385216</v>
+      </c>
+      <c r="X54">
+        <v>0.54450763727109175</v>
+      </c>
+      <c r="Y54">
+        <v>4.0179632790806705E-2</v>
+      </c>
+      <c r="AT54">
+        <v>52</v>
+      </c>
+      <c r="AU54">
+        <f t="shared" si="4"/>
+        <v>7.3790760754385216</v>
+      </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5152,7 +9160,7 @@
       </c>
       <c r="C55">
         <f t="shared" si="1"/>
-        <v>1.7246278859401671</v>
+        <v>6.6751895525853842</v>
       </c>
       <c r="D55">
         <v>54</v>
@@ -5165,8 +9173,27 @@
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
+      <c r="V55">
+        <v>53</v>
+      </c>
+      <c r="W55">
+        <v>7.0183140088271898</v>
+      </c>
+      <c r="X55">
+        <v>0.49256731526499969</v>
+      </c>
+      <c r="Y55">
+        <v>3.456992089014746E-2</v>
+      </c>
+      <c r="AT55">
+        <v>53</v>
+      </c>
+      <c r="AU55">
+        <f t="shared" si="4"/>
+        <v>7.0183140088271898</v>
+      </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5176,7 +9203,7 @@
       </c>
       <c r="C56">
         <f t="shared" si="1"/>
-        <v>1.5997113097568536</v>
+        <v>6.3488404062432418</v>
       </c>
       <c r="D56">
         <v>55</v>
@@ -5189,8 +9216,27 @@
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
+      <c r="V56">
+        <v>54</v>
+      </c>
+      <c r="W56">
+        <v>6.6751895525853842</v>
+      </c>
+      <c r="X56">
+        <v>0.44558155562945045</v>
+      </c>
+      <c r="Y56">
+        <v>2.9743413449624504E-2</v>
+      </c>
+      <c r="AT56">
+        <v>54</v>
+      </c>
+      <c r="AU56">
+        <f t="shared" si="4"/>
+        <v>6.6751895525853842</v>
+      </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5200,7 +9246,7 @@
       </c>
       <c r="C57">
         <f t="shared" si="1"/>
-        <v>1.4838425699981819</v>
+        <v>6.0384464270883749</v>
       </c>
       <c r="D57">
         <v>56</v>
@@ -5213,8 +9259,27 @@
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
+      <c r="V57">
+        <v>55</v>
+      </c>
+      <c r="W57">
+        <v>6.3488404062432418</v>
+      </c>
+      <c r="X57">
+        <v>0.40307774503946853</v>
+      </c>
+      <c r="Y57">
+        <v>2.5590762745639883E-2</v>
+      </c>
+      <c r="AT57">
+        <v>55</v>
+      </c>
+      <c r="AU57">
+        <f t="shared" si="4"/>
+        <v>6.3488404062432418</v>
+      </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5224,7 +9289,7 @@
       </c>
       <c r="C58">
         <f t="shared" si="1"/>
-        <v>1.3763663225419511</v>
+        <v>5.7432275690785985</v>
       </c>
       <c r="D58">
         <v>57</v>
@@ -5237,8 +9302,27 @@
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
+      <c r="V58">
+        <v>56</v>
+      </c>
+      <c r="W58">
+        <v>6.0384464270883749</v>
+      </c>
+      <c r="X58">
+        <v>0.3646283525281635</v>
+      </c>
+      <c r="Y58">
+        <v>2.2017887725388093E-2</v>
+      </c>
+      <c r="AT58">
+        <v>56</v>
+      </c>
+      <c r="AU58">
+        <f t="shared" si="4"/>
+        <v>6.0384464270883749</v>
+      </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5248,7 +9332,7 @@
       </c>
       <c r="C59">
         <f t="shared" si="1"/>
-        <v>1.2766746905165121</v>
+        <v>5.4624419225209646</v>
       </c>
       <c r="D59">
         <v>58</v>
@@ -5261,8 +9345,27 @@
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
+      <c r="V59">
+        <v>57</v>
+      </c>
+      <c r="W59">
+        <v>5.7432275690785985</v>
+      </c>
+      <c r="X59">
+        <v>0.32984662910224466</v>
+      </c>
+      <c r="Y59">
+        <v>1.8943842538276547E-2</v>
+      </c>
+      <c r="AT59">
+        <v>57</v>
+      </c>
+      <c r="AU59">
+        <f t="shared" si="4"/>
+        <v>5.7432275690785985</v>
+      </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5272,7 +9375,7 @@
       </c>
       <c r="C60">
         <f t="shared" si="1"/>
-        <v>1.1842038261988588</v>
+        <v>5.1953838495906162</v>
       </c>
       <c r="D60">
         <v>59</v>
@@ -5285,8 +9388,27 @@
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
+      <c r="V60">
+        <v>58</v>
+      </c>
+      <c r="W60">
+        <v>5.4624419225209646</v>
+      </c>
+      <c r="X60">
+        <v>0.29838271756914531</v>
+      </c>
+      <c r="Y60">
+        <v>1.6298982654054314E-2</v>
+      </c>
+      <c r="AT60">
+        <v>58</v>
+      </c>
+      <c r="AU60">
+        <f t="shared" si="4"/>
+        <v>5.4624419225209646</v>
+      </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5296,7 +9418,7 @@
       </c>
       <c r="C61">
         <f t="shared" si="1"/>
-        <v>1.0984307219379943</v>
+        <v>4.9413822110038952</v>
       </c>
       <c r="D61">
         <v>60</v>
@@ -5312,8 +9434,27 @@
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
+      <c r="V61">
+        <v>59</v>
+      </c>
+      <c r="W61">
+        <v>5.1953838495906162</v>
+      </c>
+      <c r="X61">
+        <v>0.26992013344587018</v>
+      </c>
+      <c r="Y61">
+        <v>1.4023387019840178E-2</v>
+      </c>
+      <c r="AT61">
+        <v>59</v>
+      </c>
+      <c r="AU61">
+        <f t="shared" si="4"/>
+        <v>5.1953838495906162</v>
+      </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5323,7 +9464,7 @@
       </c>
       <c r="C62">
         <f t="shared" si="1"/>
-        <v>1.0188702520663968</v>
+        <v>4.6997986793891595</v>
       </c>
       <c r="D62">
         <v>61</v>
@@ -5336,8 +9477,27 @@
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
+      <c r="V62">
+        <v>60</v>
+      </c>
+      <c r="W62">
+        <v>4.9413822110038952</v>
+      </c>
+      <c r="X62">
+        <v>0.24417258155225752</v>
+      </c>
+      <c r="Y62">
+        <v>1.2065500508972231E-2</v>
+      </c>
+      <c r="AT62">
+        <v>60</v>
+      </c>
+      <c r="AU62">
+        <f t="shared" si="4"/>
+        <v>4.9413822110038952</v>
+      </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5347,7 +9507,7 @@
       </c>
       <c r="C63">
         <f t="shared" si="1"/>
-        <v>0.94507242906889755</v>
+        <v>4.4700261351166874</v>
       </c>
       <c r="D63">
         <v>62</v>
@@ -5360,8 +9520,27 @@
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
+      <c r="V63">
+        <v>61</v>
+      </c>
+      <c r="W63">
+        <v>4.6997986793891595</v>
+      </c>
+      <c r="X63">
+        <v>0.22088107626788092</v>
+      </c>
+      <c r="Y63">
+        <v>1.0380965905458431E-2</v>
+      </c>
+      <c r="AT63">
+        <v>61</v>
+      </c>
+      <c r="AU63">
+        <f t="shared" si="4"/>
+        <v>4.6997986793891595</v>
+      </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5371,7 +9550,7 @@
       </c>
       <c r="C64">
         <f t="shared" si="1"/>
-        <v>0.87661985849006985</v>
+        <v>4.2514871405562422</v>
       </c>
       <c r="D64">
         <v>63</v>
@@ -5384,8 +9563,27 @@
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
+      <c r="V64">
+        <v>62</v>
+      </c>
+      <c r="W64">
+        <v>4.4700261351166874</v>
+      </c>
+      <c r="X64">
+        <v>0.19981133648626226</v>
+      </c>
+      <c r="Y64">
+        <v>8.9316189618618667E-3</v>
+      </c>
+      <c r="AT64">
+        <v>62</v>
+      </c>
+      <c r="AU64">
+        <f t="shared" si="4"/>
+        <v>4.4700261351166874</v>
+      </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5395,7 +9593,7 @@
       </c>
       <c r="C65">
         <f t="shared" si="1"/>
-        <v>0.81312537818530262</v>
+        <v>4.0436324889279991</v>
       </c>
       <c r="D65">
         <v>64</v>
@@ -5408,8 +9606,27 @@
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
+      <c r="V65">
+        <v>63</v>
+      </c>
+      <c r="W65">
+        <v>4.2514871405562422</v>
+      </c>
+      <c r="X65">
+        <v>0.18075142906315095</v>
+      </c>
+      <c r="Y65">
+        <v>7.6846237629915005E-3</v>
+      </c>
+      <c r="AT65">
+        <v>63</v>
+      </c>
+      <c r="AU65">
+        <f t="shared" si="4"/>
+        <v>4.2514871405562422</v>
+      </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5419,7 +9636,7 @@
       </c>
       <c r="C66">
         <f t="shared" si="1"/>
-        <v>0.75422986856335428</v>
+        <v>3.8459398240999443</v>
       </c>
       <c r="D66">
         <v>65</v>
@@ -5432,857 +9649,1567 @@
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
+      <c r="V66">
+        <v>64</v>
+      </c>
+      <c r="W66">
+        <v>4.0436324889279991</v>
+      </c>
+      <c r="X66">
+        <v>0.16350963705514049</v>
+      </c>
+      <c r="Y66">
+        <v>6.6117288064899155E-3</v>
+      </c>
+      <c r="AT66">
+        <v>64</v>
+      </c>
+      <c r="AU66">
+        <f t="shared" si="4"/>
+        <v>4.0436324889279991</v>
+      </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B101" si="4">$F$1-A67</f>
+        <f t="shared" ref="B67:B101" si="5">$F$1-A67</f>
         <v>34</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C101" si="5">$F$1*(0.995^(A67*$I$1))</f>
-        <v>0.69960022143529355</v>
+        <f t="shared" ref="C67:C101" si="6">$F$1*(0.995^(A67*$I$1))</f>
+        <v>3.6579123278632055</v>
       </c>
       <c r="D67">
         <v>66</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E101" si="6">$F$1-D67</f>
+        <f t="shared" ref="E67:E101" si="7">$F$1-D67</f>
         <v>34</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G101" si="7">E67+F67</f>
+        <f t="shared" ref="G67:G101" si="8">E67+F67</f>
         <v>34</v>
       </c>
+      <c r="V67">
+        <v>65</v>
+      </c>
+      <c r="W67">
+        <v>3.8459398240999443</v>
+      </c>
+      <c r="X67">
+        <v>0.14791253130597906</v>
+      </c>
+      <c r="Y67">
+        <v>5.6886269463309463E-3</v>
+      </c>
+      <c r="AT67">
+        <v>65</v>
+      </c>
+      <c r="AU67">
+        <f t="shared" si="4"/>
+        <v>3.8459398240999443</v>
+      </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="C68">
-        <f t="shared" si="5"/>
-        <v>0.64892745598180923</v>
+        <f t="shared" si="6"/>
+        <v>3.4790774713863293</v>
       </c>
       <c r="D68">
         <v>67</v>
       </c>
       <c r="E68">
-        <f t="shared" si="6"/>
-        <v>33</v>
-      </c>
-      <c r="G68">
         <f t="shared" si="7"/>
         <v>33</v>
       </c>
+      <c r="G68">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="V68">
+        <v>66</v>
+      </c>
+      <c r="W68">
+        <v>3.6579123278632055</v>
+      </c>
+      <c r="X68">
+        <v>0.13380322598333616</v>
+      </c>
+      <c r="Y68">
+        <v>4.8944046983231178E-3</v>
+      </c>
+      <c r="AT68">
+        <v>66</v>
+      </c>
+      <c r="AU68">
+        <f t="shared" ref="AU68:AU102" si="9">$AS$1*($AU$1^(AT68*$AW$1))</f>
+        <v>3.6579123278632055</v>
+      </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="C69">
-        <f t="shared" si="5"/>
-        <v>0.60192497118294763</v>
+        <f t="shared" si="6"/>
+        <v>3.3089858277107793</v>
       </c>
       <c r="D69">
         <v>68</v>
       </c>
       <c r="E69">
-        <f t="shared" si="6"/>
-        <v>32</v>
-      </c>
-      <c r="G69">
         <f t="shared" si="7"/>
         <v>32</v>
       </c>
+      <c r="G69">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="V69">
+        <v>67</v>
+      </c>
+      <c r="W69">
+        <v>3.4790774713863293</v>
+      </c>
+      <c r="X69">
+        <v>0.12103980051907895</v>
+      </c>
+      <c r="Y69">
+        <v>4.211068431270228E-3</v>
+      </c>
+      <c r="AT69">
+        <v>67</v>
+      </c>
+      <c r="AU69">
+        <f t="shared" si="9"/>
+        <v>3.4790774713863293</v>
+      </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="C70">
-        <f t="shared" si="5"/>
-        <v>0.55832692482616852</v>
+        <f t="shared" si="6"/>
+        <v>3.1472099423033897</v>
       </c>
       <c r="D70">
         <v>69</v>
       </c>
       <c r="E70">
-        <f t="shared" si="6"/>
-        <v>31</v>
-      </c>
-      <c r="G70">
         <f t="shared" si="7"/>
         <v>31</v>
       </c>
+      <c r="G70">
+        <f t="shared" si="8"/>
+        <v>31</v>
+      </c>
+      <c r="V70">
+        <v>68</v>
+      </c>
+      <c r="W70">
+        <v>3.3089858277107793</v>
+      </c>
+      <c r="X70">
+        <v>0.10949387207990792</v>
+      </c>
+      <c r="Y70">
+        <v>3.6231367093359241E-3</v>
+      </c>
+      <c r="AT70">
+        <v>68</v>
+      </c>
+      <c r="AU70">
+        <f t="shared" si="9"/>
+        <v>3.3089858277107793</v>
+      </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="C71">
-        <f t="shared" si="5"/>
-        <v>0.51788672992451734</v>
+        <f t="shared" si="6"/>
+        <v>2.9933432588273523</v>
       </c>
       <c r="D71">
         <v>70</v>
       </c>
       <c r="E71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="F71">
         <v>10</v>
       </c>
       <c r="G71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
+      <c r="V71">
+        <v>69</v>
+      </c>
+      <c r="W71">
+        <v>3.1472099423033897</v>
+      </c>
+      <c r="X71">
+        <v>9.9049304209333083E-2</v>
+      </c>
+      <c r="Y71">
+        <v>3.1172895498584614E-3</v>
+      </c>
+      <c r="AT71">
+        <v>69</v>
+      </c>
+      <c r="AU71">
+        <f t="shared" si="9"/>
+        <v>3.1472099423033897</v>
+      </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="C72">
-        <f t="shared" si="5"/>
-        <v>0.48037566004078042</v>
+        <f t="shared" si="6"/>
+        <v>2.8469990974321218</v>
       </c>
       <c r="D72">
         <v>71</v>
       </c>
       <c r="E72">
-        <f t="shared" si="6"/>
-        <v>29</v>
-      </c>
-      <c r="G72">
         <f t="shared" si="7"/>
         <v>29</v>
       </c>
+      <c r="G72">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="V72">
+        <v>70</v>
+      </c>
+      <c r="W72">
+        <v>2.9933432588273523</v>
+      </c>
+      <c r="X72">
+        <v>8.9601038651671502E-2</v>
+      </c>
+      <c r="Y72">
+        <v>2.6820666503191001E-3</v>
+      </c>
+      <c r="AT72">
+        <v>70</v>
+      </c>
+      <c r="AU72">
+        <f t="shared" si="9"/>
+        <v>2.9933432588273523</v>
+      </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="C73">
-        <f t="shared" si="5"/>
-        <v>0.44558155562945045</v>
+        <f t="shared" si="6"/>
+        <v>2.7078096829946001</v>
       </c>
       <c r="D73">
         <v>72</v>
       </c>
       <c r="E73">
-        <f t="shared" si="6"/>
-        <v>28</v>
-      </c>
-      <c r="G73">
         <f t="shared" si="7"/>
         <v>28</v>
       </c>
+      <c r="G73">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="V73">
+        <v>71</v>
+      </c>
+      <c r="W73">
+        <v>2.8469990974321218</v>
+      </c>
+      <c r="X73">
+        <v>8.1054038607793172E-2</v>
+      </c>
+      <c r="Y73">
+        <v>2.3076077475961553E-3</v>
+      </c>
+      <c r="AT73">
+        <v>71</v>
+      </c>
+      <c r="AU73">
+        <f t="shared" si="9"/>
+        <v>2.8469990974321218</v>
+      </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="C74">
-        <f t="shared" si="5"/>
-        <v>0.41330762407967581</v>
+        <f t="shared" si="6"/>
+        <v>2.5754252208694748</v>
       </c>
       <c r="D74">
         <v>73</v>
       </c>
       <c r="E74">
-        <f t="shared" si="6"/>
-        <v>27</v>
-      </c>
-      <c r="G74">
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
+      <c r="G74">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="V74">
+        <v>72</v>
+      </c>
+      <c r="W74">
+        <v>2.7078096829946001</v>
+      </c>
+      <c r="X74">
+        <v>7.3322332793193196E-2</v>
+      </c>
+      <c r="Y74">
+        <v>1.9854292271716104E-3</v>
+      </c>
+      <c r="AT74">
+        <v>72</v>
+      </c>
+      <c r="AU74">
+        <f t="shared" si="9"/>
+        <v>2.7078096829946001</v>
+      </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="C75">
-        <f t="shared" si="5"/>
-        <v>0.38337132667233809</v>
+        <f t="shared" si="6"/>
+        <v>2.4495130178260061</v>
       </c>
       <c r="D75">
         <v>74</v>
       </c>
       <c r="E75">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
-      <c r="G75">
         <f t="shared" si="7"/>
         <v>26</v>
       </c>
+      <c r="G75">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="V75">
+        <v>73</v>
+      </c>
+      <c r="W75">
+        <v>2.5754252208694748</v>
+      </c>
+      <c r="X75">
+        <v>6.6328150682905831E-2</v>
+      </c>
+      <c r="Y75">
+        <v>1.7082319212238667E-3</v>
+      </c>
+      <c r="AT75">
+        <v>73</v>
+      </c>
+      <c r="AU75">
+        <f t="shared" si="9"/>
+        <v>2.5754252208694748</v>
+      </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="C76">
-        <f t="shared" si="5"/>
-        <v>0.355603346155975</v>
+        <f t="shared" si="6"/>
+        <v>2.3297566459621</v>
       </c>
       <c r="D76">
         <v>75</v>
       </c>
       <c r="E76">
-        <f t="shared" si="6"/>
-        <v>25</v>
-      </c>
-      <c r="G76">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
+      <c r="G76">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="V76">
+        <v>74</v>
+      </c>
+      <c r="W76">
+        <v>2.4495130178260061</v>
+      </c>
+      <c r="X76">
+        <v>6.0001140244990689E-2</v>
+      </c>
+      <c r="Y76">
+        <v>1.4697357411450854E-3</v>
+      </c>
+      <c r="AT76">
+        <v>74</v>
+      </c>
+      <c r="AU76">
+        <f t="shared" si="9"/>
+        <v>2.4495130178260061</v>
+      </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="C77">
-        <f t="shared" si="5"/>
-        <v>0.32984662910224466</v>
+        <f t="shared" si="6"/>
+        <v>2.2158551474945116</v>
       </c>
       <c r="D77">
         <v>76</v>
       </c>
       <c r="E77">
-        <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="G77">
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
+      <c r="G77">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="V77">
+        <v>75</v>
+      </c>
+      <c r="W77">
+        <v>2.3297566459621</v>
+      </c>
+      <c r="X77">
+        <v>5.427766029404571E-2</v>
+      </c>
+      <c r="Y77">
+        <v>1.2645373979732618E-3</v>
+      </c>
+      <c r="AT77">
+        <v>75</v>
+      </c>
+      <c r="AU77">
+        <f t="shared" si="9"/>
+        <v>2.3297566459621</v>
+      </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="C78">
-        <f t="shared" si="5"/>
-        <v>0.30595549762457058</v>
+        <f t="shared" si="6"/>
+        <v>2.1075222784267571</v>
       </c>
       <c r="D78">
         <v>77</v>
       </c>
       <c r="E78">
-        <f t="shared" si="6"/>
-        <v>23</v>
-      </c>
-      <c r="G78">
         <f t="shared" si="7"/>
         <v>23</v>
       </c>
+      <c r="G78">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="V78">
+        <v>76</v>
+      </c>
+      <c r="W78">
+        <v>2.2158551474945116</v>
+      </c>
+      <c r="X78">
+        <v>4.9100140346779252E-2</v>
+      </c>
+      <c r="Y78">
+        <v>1.0879879873011372E-3</v>
+      </c>
+      <c r="AT78">
+        <v>76</v>
+      </c>
+      <c r="AU78">
+        <f t="shared" si="9"/>
+        <v>2.2158551474945116</v>
+      </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="C79">
-        <f t="shared" si="5"/>
-        <v>0.28379482543592133</v>
+        <f t="shared" si="6"/>
+        <v>2.004485789193994</v>
       </c>
       <c r="D79">
         <v>78</v>
       </c>
       <c r="E79">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="G79">
         <f t="shared" si="7"/>
         <v>22</v>
       </c>
+      <c r="G79">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="V79">
+        <v>77</v>
+      </c>
+      <c r="W79">
+        <v>2.1075222784267571</v>
+      </c>
+      <c r="X79">
+        <v>4.4416501540651111E-2</v>
+      </c>
+      <c r="Y79">
+        <v>9.3608766526698619E-4</v>
+      </c>
+      <c r="AT79">
+        <v>77</v>
+      </c>
+      <c r="AU79">
+        <f t="shared" si="9"/>
+        <v>2.1075222784267571</v>
+      </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="C80">
-        <f t="shared" si="5"/>
-        <v>0.26323927358557497</v>
+        <f t="shared" si="6"/>
+        <v>1.9064867404770856</v>
       </c>
       <c r="D80">
         <v>79</v>
       </c>
       <c r="E80">
-        <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
-      <c r="G80">
         <f t="shared" si="7"/>
         <v>21</v>
       </c>
+      <c r="G80">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="V80">
+        <v>78</v>
+      </c>
+      <c r="W80">
+        <v>2.004485789193994</v>
+      </c>
+      <c r="X80">
+        <v>4.0179632790806705E-2</v>
+      </c>
+      <c r="Y80">
+        <v>8.0539502944205067E-4</v>
+      </c>
+      <c r="AT80">
+        <v>78</v>
+      </c>
+      <c r="AU80">
+        <f t="shared" si="9"/>
+        <v>2.004485789193994</v>
+      </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="C81">
-        <f t="shared" si="5"/>
-        <v>0.24417258155225752</v>
+        <f t="shared" si="6"/>
+        <v>1.8132788524664254</v>
       </c>
       <c r="D81">
         <v>80</v>
       </c>
       <c r="E81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="F81">
         <v>10</v>
       </c>
       <c r="G81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
+      <c r="V81">
+        <v>79</v>
+      </c>
+      <c r="W81">
+        <v>1.9064867404770856</v>
+      </c>
+      <c r="X81">
+        <v>3.6346916916149434E-2</v>
+      </c>
+      <c r="Y81">
+        <v>6.9294915157861185E-4</v>
+      </c>
+      <c r="AT81">
+        <v>79</v>
+      </c>
+      <c r="AU81">
+        <f t="shared" si="9"/>
+        <v>1.9064867404770856</v>
+      </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="C82">
-        <f t="shared" si="5"/>
-        <v>0.22648690968413657</v>
+        <f t="shared" si="6"/>
+        <v>1.7246278859401671</v>
       </c>
       <c r="D82">
         <v>81</v>
       </c>
       <c r="E82">
-        <f t="shared" si="6"/>
-        <v>19</v>
-      </c>
-      <c r="G82">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
+      <c r="G82">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="V82">
+        <v>80</v>
+      </c>
+      <c r="W82">
+        <v>1.8132788524664254</v>
+      </c>
+      <c r="X82">
+        <v>3.2879801968019567E-2</v>
+      </c>
+      <c r="Y82">
+        <v>5.9620249581893831E-4</v>
+      </c>
+      <c r="AT82">
+        <v>80</v>
+      </c>
+      <c r="AU82">
+        <f t="shared" si="9"/>
+        <v>1.8132788524664254</v>
+      </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="C83">
-        <f t="shared" si="5"/>
-        <v>0.21008222926656434</v>
+        <f t="shared" si="6"/>
+        <v>1.6403110536014607</v>
       </c>
       <c r="D83">
         <v>82</v>
       </c>
       <c r="E83">
-        <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="G83">
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
+      <c r="G83">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="V83">
+        <v>81</v>
+      </c>
+      <c r="W83">
+        <v>1.7246278859401671</v>
+      </c>
+      <c r="X83">
+        <v>2.9743413449624504E-2</v>
+      </c>
+      <c r="Y83">
+        <v>5.1296320258270242E-4</v>
+      </c>
+      <c r="AT83">
+        <v>81</v>
+      </c>
+      <c r="AU83">
+        <f t="shared" si="9"/>
+        <v>1.7246278859401671</v>
+      </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="C84">
-        <f t="shared" si="5"/>
-        <v>0.19486575676784271</v>
+        <f t="shared" si="6"/>
+        <v>1.5601164601953332</v>
       </c>
       <c r="D84">
         <v>83</v>
       </c>
       <c r="E84">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="G84">
         <f t="shared" si="7"/>
         <v>17</v>
       </c>
+      <c r="G84">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="V84">
+        <v>82</v>
+      </c>
+      <c r="W84">
+        <v>1.6403110536014607</v>
+      </c>
+      <c r="X84">
+        <v>2.6906203525671343E-2</v>
+      </c>
+      <c r="Y84">
+        <v>4.4134543053609316E-4</v>
+      </c>
+      <c r="AT84">
+        <v>82</v>
+      </c>
+      <c r="AU84">
+        <f t="shared" si="9"/>
+        <v>1.6403110536014607</v>
+      </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="C85">
-        <f t="shared" si="5"/>
-        <v>0.18075142906315095</v>
+        <f t="shared" si="6"/>
+        <v>1.4838425699981819</v>
       </c>
       <c r="D85">
         <v>84</v>
       </c>
       <c r="E85">
-        <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="G85">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
+      <c r="G85">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="V85">
+        <v>83</v>
+      </c>
+      <c r="W85">
+        <v>1.5601164601953332</v>
+      </c>
+      <c r="X85">
+        <v>2.4339633693724175E-2</v>
+      </c>
+      <c r="Y85">
+        <v>3.7972663160704026E-4</v>
+      </c>
+      <c r="AT85">
+        <v>83</v>
+      </c>
+      <c r="AU85">
+        <f t="shared" si="9"/>
+        <v>1.5601164601953332</v>
+      </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="C86">
-        <f t="shared" si="5"/>
-        <v>0.16765941666854606</v>
+        <f t="shared" si="6"/>
+        <v>1.4112977003416369</v>
       </c>
       <c r="D86">
         <v>85</v>
       </c>
       <c r="E86">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="G86">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
+      <c r="G86">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="V86">
+        <v>84</v>
+      </c>
+      <c r="W86">
+        <v>1.4838425699981819</v>
+      </c>
+      <c r="X86">
+        <v>2.2017887725388093E-2</v>
+      </c>
+      <c r="Y86">
+        <v>3.2671079108371293E-4</v>
+      </c>
+      <c r="AT86">
+        <v>84</v>
+      </c>
+      <c r="AU86">
+        <f t="shared" si="9"/>
+        <v>1.4838425699981819</v>
+      </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="C87">
-        <f t="shared" si="5"/>
-        <v>0.15551567223192567</v>
+        <f t="shared" si="6"/>
+        <v>1.3422995398979782</v>
       </c>
       <c r="D87">
         <v>86</v>
       </c>
       <c r="E87">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="G87">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
+      <c r="G87">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="V87">
+        <v>85</v>
+      </c>
+      <c r="W87">
+        <v>1.4112977003416369</v>
+      </c>
+      <c r="X87">
+        <v>1.9917611989895934E-2</v>
+      </c>
+      <c r="Y87">
+        <v>2.8109679997637154E-4</v>
+      </c>
+      <c r="AT87">
+        <v>85</v>
+      </c>
+      <c r="AU87">
+        <f t="shared" si="9"/>
+        <v>1.4112977003416369</v>
+      </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="C88">
-        <f t="shared" si="5"/>
-        <v>0.14425151172725639</v>
+        <f t="shared" si="6"/>
+        <v>1.2766746905165121</v>
       </c>
       <c r="D88">
         <v>87</v>
       </c>
       <c r="E88">
-        <f t="shared" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="G88">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
+      <c r="G88">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="V88">
+        <v>86</v>
+      </c>
+      <c r="W88">
+        <v>1.3422995398979782</v>
+      </c>
+      <c r="X88">
+        <v>1.8017680548103248E-2</v>
+      </c>
+      <c r="Y88">
+        <v>2.4185124309747746E-4</v>
+      </c>
+      <c r="AT88">
+        <v>86</v>
+      </c>
+      <c r="AU88">
+        <f t="shared" si="9"/>
+        <v>1.3422995398979782</v>
+      </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="C89">
-        <f t="shared" si="5"/>
-        <v>0.13380322598333616</v>
+        <f t="shared" si="6"/>
+        <v>1.2142582314595087</v>
       </c>
       <c r="D89">
         <v>88</v>
       </c>
       <c r="E89">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="G89">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
+      <c r="G89">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="V89">
+        <v>87</v>
+      </c>
+      <c r="W89">
+        <v>1.2766746905165121</v>
+      </c>
+      <c r="X89">
+        <v>1.6298982654054314E-2</v>
+      </c>
+      <c r="Y89">
+        <v>2.0808498635598789E-4</v>
+      </c>
+      <c r="AT89">
+        <v>87</v>
+      </c>
+      <c r="AU89">
+        <f t="shared" si="9"/>
+        <v>1.2766746905165121</v>
+      </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="C90">
-        <f t="shared" si="5"/>
-        <v>0.12411172034992884</v>
+        <f t="shared" si="6"/>
+        <v>1.1548933049425907</v>
       </c>
       <c r="D90">
         <v>89</v>
       </c>
       <c r="E90">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="G90">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
+      <c r="G90">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="V90">
+        <v>88</v>
+      </c>
+      <c r="W90">
+        <v>1.2142582314595087</v>
+      </c>
+      <c r="X90">
+        <v>1.4744230526671738E-2</v>
+      </c>
+      <c r="Y90">
+        <v>1.7903303283547728E-4</v>
+      </c>
+      <c r="AT90">
+        <v>88</v>
+      </c>
+      <c r="AU90">
+        <f t="shared" si="9"/>
+        <v>1.2142582314595087</v>
+      </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="C91">
-        <f t="shared" si="5"/>
-        <v>0.11512218046325219</v>
+        <f t="shared" si="6"/>
+        <v>1.0984307219379943</v>
       </c>
       <c r="D91">
         <v>90</v>
       </c>
       <c r="E91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="F91">
         <v>10</v>
       </c>
       <c r="G91">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
+      <c r="V91">
+        <v>89</v>
+      </c>
+      <c r="W91">
+        <v>1.1548933049425907</v>
+      </c>
+      <c r="X91">
+        <v>1.3337785458012204E-2</v>
+      </c>
+      <c r="Y91">
+        <v>1.5403719128218943E-4</v>
+      </c>
+      <c r="AT91">
+        <v>89</v>
+      </c>
+      <c r="AU91">
+        <f t="shared" si="9"/>
+        <v>1.1548933049425907</v>
+      </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="C92">
-        <f t="shared" si="5"/>
-        <v>0.1067837622204163</v>
+        <f t="shared" si="6"/>
+        <v>1.0447285872500578</v>
       </c>
       <c r="D92">
         <v>91</v>
       </c>
       <c r="E92">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="G92">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
+      <c r="G92">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="V92">
+        <v>90</v>
+      </c>
+      <c r="W92">
+        <v>1.0984307219379943</v>
+      </c>
+      <c r="X92">
+        <v>1.2065500508972231E-2</v>
+      </c>
+      <c r="Y92">
+        <v>1.3253116434613606E-4</v>
+      </c>
+      <c r="AT92">
+        <v>90</v>
+      </c>
+      <c r="AU92">
+        <f t="shared" si="9"/>
+        <v>1.0984307219379943</v>
+      </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="C93">
-        <f t="shared" si="5"/>
-        <v>9.9049304209333083E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.99365194292072401</v>
       </c>
       <c r="D93">
         <v>92</v>
       </c>
       <c r="E93">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="G93">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
+      <c r="G93">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="V93">
+        <v>91</v>
+      </c>
+      <c r="W93">
+        <v>1.0447285872500578</v>
+      </c>
+      <c r="X93">
+        <v>1.0914578210175016E-2</v>
+      </c>
+      <c r="Y93">
+        <v>1.1402771873946407E-4</v>
+      </c>
+      <c r="AT93">
+        <v>91</v>
+      </c>
+      <c r="AU93">
+        <f t="shared" si="9"/>
+        <v>1.0447285872500578</v>
+      </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="C94">
-        <f t="shared" si="5"/>
-        <v>9.1875060967623934E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.94507242906889755</v>
       </c>
       <c r="D94">
         <v>93</v>
       </c>
       <c r="E94">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="G94">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
+      <c r="G94">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="V94">
+        <v>92</v>
+      </c>
+      <c r="W94">
+        <v>0.99365194292072401</v>
+      </c>
+      <c r="X94">
+        <v>9.8734418367013004E-3</v>
+      </c>
+      <c r="Y94">
+        <v>9.8107646643530105E-5</v>
+      </c>
+      <c r="AT94">
+        <v>92</v>
+      </c>
+      <c r="AU94">
+        <f t="shared" si="9"/>
+        <v>0.99365194292072401</v>
+      </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="C95">
-        <f t="shared" si="5"/>
-        <v>8.5220455561859976E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.89886796131132329</v>
       </c>
       <c r="D95">
         <v>94</v>
       </c>
       <c r="E95">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="G95">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
+      <c r="G95">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="V95">
+        <v>93</v>
+      </c>
+      <c r="W95">
+        <v>0.94507242906889755</v>
+      </c>
+      <c r="X95">
+        <v>8.9316189618618667E-3</v>
+      </c>
+      <c r="Y95">
+        <v>8.4410268278046222E-5</v>
+      </c>
+      <c r="AT95">
+        <v>93</v>
+      </c>
+      <c r="AU95">
+        <f t="shared" si="9"/>
+        <v>0.94507242906889755</v>
+      </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="C96">
-        <f t="shared" si="5"/>
-        <v>7.9047850087742608E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.85492242395431517</v>
       </c>
       <c r="D96">
         <v>95</v>
       </c>
       <c r="E96">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="G96">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
+      <c r="G96">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="V96">
+        <v>94</v>
+      </c>
+      <c r="W96">
+        <v>0.89886796131132329</v>
+      </c>
+      <c r="X96">
+        <v>8.0796361187197453E-3</v>
+      </c>
+      <c r="Y96">
+        <v>7.2625260461709523E-5</v>
+      </c>
+      <c r="AT96">
+        <v>94</v>
+      </c>
+      <c r="AU96">
+        <f t="shared" si="9"/>
+        <v>0.89886796131132329</v>
+      </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="C97">
-        <f t="shared" si="5"/>
-        <v>7.3322332793193196E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.81312537818530262</v>
       </c>
       <c r="D97">
         <v>96</v>
       </c>
       <c r="E97">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="G97">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
+      <c r="G97">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="V97">
+        <v>95</v>
+      </c>
+      <c r="W97">
+        <v>0.85492242395431517</v>
+      </c>
+      <c r="X97">
+        <v>7.3089235097992186E-3</v>
+      </c>
+      <c r="Y97">
+        <v>6.2485626034942292E-5</v>
+      </c>
+      <c r="AT97">
+        <v>95</v>
+      </c>
+      <c r="AU97">
+        <f t="shared" si="9"/>
+        <v>0.85492242395431517</v>
+      </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="C98">
-        <f t="shared" si="5"/>
-        <v>6.8011520620336482E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.77337178453085342</v>
       </c>
       <c r="D98">
         <v>97</v>
       </c>
       <c r="E98">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="G98">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
+      <c r="G98">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="V98">
+        <v>96</v>
+      </c>
+      <c r="W98">
+        <v>0.81312537818530262</v>
+      </c>
+      <c r="X98">
+        <v>6.6117288064899155E-3</v>
+      </c>
+      <c r="Y98">
+        <v>5.3761644862357729E-5</v>
+      </c>
+      <c r="AT98">
+        <v>96</v>
+      </c>
+      <c r="AU98">
+        <f t="shared" si="9"/>
+        <v>0.81312537818530262</v>
+      </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="C99">
-        <f t="shared" si="5"/>
-        <v>6.3085376049571956E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.73556173888368681</v>
       </c>
       <c r="D99">
         <v>98</v>
       </c>
       <c r="E99">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="G99">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
+      <c r="G99">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="V99">
+        <v>97</v>
+      </c>
+      <c r="W99">
+        <v>0.77337178453085342</v>
+      </c>
+      <c r="X99">
+        <v>5.9810391710843677E-3</v>
+      </c>
+      <c r="Y99">
+        <v>4.6255669370904547E-5</v>
+      </c>
+      <c r="AT99">
+        <v>97</v>
+      </c>
+      <c r="AU99">
+        <f t="shared" si="9"/>
+        <v>0.77337178453085342</v>
+      </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C100">
-        <f t="shared" si="5"/>
-        <v>5.8516037209817906E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.69960022143529355</v>
       </c>
       <c r="D100">
         <v>99</v>
       </c>
       <c r="E100">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="G100">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
+      <c r="G100">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="V100">
+        <v>98</v>
+      </c>
+      <c r="W100">
+        <v>0.73556173888368681</v>
+      </c>
+      <c r="X100">
+        <v>5.4105107170959316E-3</v>
+      </c>
+      <c r="Y100">
+        <v>3.9797646713159077E-5</v>
+      </c>
+      <c r="AT100">
+        <v>98</v>
+      </c>
+      <c r="AU100">
+        <f t="shared" si="9"/>
+        <v>0.73556173888368681</v>
+      </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C101">
-        <f t="shared" si="5"/>
-        <v>5.427766029404571E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.6653968578832048</v>
       </c>
       <c r="D101">
         <v>100</v>
       </c>
       <c r="E101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F101">
         <v>10</v>
       </c>
       <c r="G101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
+      </c>
+      <c r="V101">
+        <v>99</v>
+      </c>
+      <c r="W101">
+        <v>0.69960022143529355</v>
+      </c>
+      <c r="X101">
+        <v>4.8944046983231178E-3</v>
+      </c>
+      <c r="Y101">
+        <v>3.4241266107407946E-5</v>
+      </c>
+      <c r="AT101">
+        <v>99</v>
+      </c>
+      <c r="AU101">
+        <f t="shared" si="9"/>
+        <v>0.69960022143529355</v>
+      </c>
+    </row>
+    <row r="102" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="V102">
+        <v>100</v>
+      </c>
+      <c r="W102">
+        <v>0.6653968578832048</v>
+      </c>
+      <c r="X102">
+        <v>4.4275297848084209E-3</v>
+      </c>
+      <c r="Y102">
+        <v>2.9460644069958265E-5</v>
+      </c>
+      <c r="AT102">
+        <v>100</v>
+      </c>
+      <c r="AU102">
+        <f t="shared" si="9"/>
+        <v>0.6653968578832048</v>
+      </c>
+    </row>
+    <row r="103" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AU103" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
